--- a/data/trans_orig/P16A08-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A08-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57F647B3-8B46-4C5E-B6F8-24318E5B563E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{347A9086-DBE1-4280-B314-1126F9885CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FFD2A7BE-5969-46AF-B39B-D60690F07B00}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DDEA8765-8D11-4A81-BB3E-7102EF86BDBC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="381">
   <si>
     <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -413,769 +413,775 @@
     <t>2,32%</t>
   </si>
   <si>
-    <t>9,04%</t>
+    <t>7,98%</t>
   </si>
   <si>
     <t>5,6%</t>
   </si>
   <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
   </si>
   <si>
     <t>3,94%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
   </si>
   <si>
     <t>97,68%</t>
   </si>
   <si>
-    <t>90,96%</t>
+    <t>92,02%</t>
   </si>
   <si>
     <t>94,4%</t>
   </si>
   <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
   </si>
   <si>
     <t>96,06%</t>
   </si>
   <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
   </si>
   <si>
     <t>4,28%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
   </si>
   <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>2,23%</t>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
   </si>
   <si>
     <t>4,25%</t>
   </si>
   <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
   </si>
   <si>
     <t>95,75%</t>
   </si>
   <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
   </si>
   <si>
     <t>4,49%</t>
   </si>
   <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
   </si>
   <si>
     <t>95,51%</t>
   </si>
   <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
+    <t>93,59%</t>
   </si>
   <si>
     <t>95,17%</t>
   </si>
   <si>
-    <t>93,7%</t>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
   </si>
   <si>
     <t>95,33%</t>
   </si>
   <si>
-    <t>94,14%</t>
-  </si>
-  <si>
     <t>2,94%</t>
   </si>
   <si>
+    <t>1,86%</t>
+  </si>
+  <si>
     <t>6,96%</t>
   </si>
   <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
   </si>
   <si>
     <t>97,06%</t>
   </si>
   <si>
+    <t>98,14%</t>
+  </si>
+  <si>
     <t>93,04%</t>
   </si>
   <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
   </si>
   <si>
     <t>3,36%</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
   </si>
   <si>
     <t>5,05%</t>
   </si>
   <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
   </si>
   <si>
     <t>96,64%</t>
   </si>
   <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
   </si>
   <si>
     <t>94,95%</t>
   </si>
   <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
   </si>
 </sst>
 </file>
@@ -1587,7 +1593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA834A69-E8D1-4BF0-9ACD-DBD6B7F45946}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB50AF2B-A540-40DE-B21F-52DA90B9DDA7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2650,7 +2656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66565D59-19CF-4BBF-A201-2785205773A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590B42B6-AFAA-4232-8429-66134C52DB56}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3007,7 +3013,7 @@
         <v>1061</v>
       </c>
       <c r="N8" s="7">
-        <v>1130105</v>
+        <v>1130106</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>154</v>
@@ -3058,7 +3064,7 @@
         <v>1098</v>
       </c>
       <c r="N9" s="7">
-        <v>1167259</v>
+        <v>1167260</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>28</v>
@@ -3102,7 +3108,7 @@
         <v>160</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>161</v>
@@ -3156,7 +3162,7 @@
         <v>169</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="M11" s="7">
         <v>1783</v>
@@ -3242,10 +3248,10 @@
         <v>173</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -3254,13 +3260,13 @@
         <v>44092</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -3269,13 +3275,13 @@
         <v>74908</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3290,13 +3296,13 @@
         <v>725722</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>183</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c r="H14" s="7">
         <v>665</v>
@@ -3305,13 +3311,13 @@
         <v>732191</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>1327</v>
@@ -3320,13 +3326,13 @@
         <v>1457913</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,13 +3400,13 @@
         <v>34282</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>192</v>
+        <v>51</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H16" s="7">
         <v>58</v>
@@ -3409,13 +3415,13 @@
         <v>60738</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M16" s="7">
         <v>90</v>
@@ -3424,13 +3430,13 @@
         <v>95020</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,13 +3451,13 @@
         <v>909657</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>61</v>
       </c>
       <c r="H17" s="7">
         <v>942</v>
@@ -3460,13 +3466,13 @@
         <v>988025</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M17" s="7">
         <v>1817</v>
@@ -3475,13 +3481,13 @@
         <v>1897682</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3549,13 +3555,13 @@
         <v>116610</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="H19" s="7">
         <v>183</v>
@@ -3564,13 +3570,13 @@
         <v>195206</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="M19" s="7">
         <v>288</v>
@@ -3579,13 +3585,13 @@
         <v>311815</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,13 +3606,13 @@
         <v>3302578</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H20" s="7">
         <v>3103</v>
@@ -3615,13 +3621,13 @@
         <v>3349880</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M20" s="7">
         <v>6200</v>
@@ -3630,13 +3636,13 @@
         <v>6652459</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3713,7 +3719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2849E2-9235-41DD-9D8C-43AA13345261}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFECD0B-FF0C-4675-ABB4-0E3CB050A963}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3730,7 +3736,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3837,13 +3843,13 @@
         <v>794</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3852,13 +3858,13 @@
         <v>2537</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -3867,13 +3873,13 @@
         <v>3331</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,10 +3894,10 @@
         <v>115752</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>22</v>
@@ -3903,10 +3909,10 @@
         <v>110823</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>22</v>
@@ -3918,13 +3924,13 @@
         <v>226575</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>238</v>
+        <v>151</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,13 +3998,13 @@
         <v>17522</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>241</v>
+        <v>86</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -4007,13 +4013,13 @@
         <v>21648</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -4022,13 +4028,13 @@
         <v>39170</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>51</v>
+        <v>238</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,13 +4049,13 @@
         <v>540732</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>250</v>
+        <v>96</v>
       </c>
       <c r="H8" s="7">
         <v>530</v>
@@ -4058,13 +4064,13 @@
         <v>537831</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="M8" s="7">
         <v>1052</v>
@@ -4073,13 +4079,13 @@
         <v>1078563</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>61</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,13 +4153,13 @@
         <v>28776</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>104</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>177</v>
+        <v>247</v>
       </c>
       <c r="H10" s="7">
         <v>57</v>
@@ -4162,13 +4168,13 @@
         <v>61176</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="M10" s="7">
         <v>83</v>
@@ -4180,10 +4186,10 @@
         <v>18</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,10 +4204,10 @@
         <v>993655</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>187</v>
+        <v>254</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>114</v>
@@ -4213,13 +4219,13 @@
         <v>981737</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="M11" s="7">
         <v>1845</v>
@@ -4231,10 +4237,10 @@
         <v>26</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4302,13 +4308,13 @@
         <v>23111</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -4317,13 +4323,13 @@
         <v>53974</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="M13" s="7">
         <v>73</v>
@@ -4335,10 +4341,10 @@
         <v>88</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4353,13 +4359,13 @@
         <v>736441</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="H14" s="7">
         <v>685</v>
@@ -4368,13 +4374,13 @@
         <v>731037</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="M14" s="7">
         <v>1359</v>
@@ -4386,10 +4392,10 @@
         <v>97</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4457,13 +4463,13 @@
         <v>34033</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H16" s="7">
         <v>46</v>
@@ -4472,13 +4478,13 @@
         <v>51126</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>159</v>
+        <v>275</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>163</v>
+        <v>276</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="M16" s="7">
         <v>80</v>
@@ -4487,13 +4493,13 @@
         <v>85160</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4508,13 +4514,13 @@
         <v>903534</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>280</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="H17" s="7">
         <v>913</v>
@@ -4523,13 +4529,13 @@
         <v>992653</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>166</v>
+        <v>281</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>172</v>
+        <v>283</v>
       </c>
       <c r="M17" s="7">
         <v>1811</v>
@@ -4538,13 +4544,13 @@
         <v>1896186</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4615,10 +4621,10 @@
         <v>53</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>290</v>
+        <v>51</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="H19" s="7">
         <v>177</v>
@@ -4627,13 +4633,13 @@
         <v>190462</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="M19" s="7">
         <v>277</v>
@@ -4642,13 +4648,13 @@
         <v>294698</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>147</v>
+        <v>289</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>213</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,10 +4672,10 @@
         <v>62</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>295</v>
+        <v>61</v>
       </c>
       <c r="H20" s="7">
         <v>3161</v>
@@ -4678,13 +4684,13 @@
         <v>3354080</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="M20" s="7">
         <v>6292</v>
@@ -4693,13 +4699,13 @@
         <v>6644194</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>155</v>
+        <v>295</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>223</v>
+        <v>296</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4776,7 +4782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F2D653-D2E0-4BB8-9AFD-F291A4E790AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E3ED47-0E58-4174-B399-B8D7FC7C7F05}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4793,7 +4799,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4900,13 +4906,13 @@
         <v>3690</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -4915,13 +4921,13 @@
         <v>7250</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>54</v>
+        <v>158</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -4930,13 +4936,13 @@
         <v>10939</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4951,13 +4957,13 @@
         <v>98292</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H5" s="7">
         <v>233</v>
@@ -4966,13 +4972,13 @@
         <v>123126</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>312</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="M5" s="7">
         <v>348</v>
@@ -4981,13 +4987,13 @@
         <v>221419</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,7 +5082,7 @@
         <v>318</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>319</v>
+        <v>125</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -5085,13 +5091,13 @@
         <v>41181</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5124,10 +5130,10 @@
         <v>324</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="M8" s="7">
         <v>1559</v>
@@ -5136,10 +5142,10 @@
         <v>1101083</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>328</v>
@@ -5246,7 +5252,7 @@
         <v>335</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5261,13 +5267,13 @@
         <v>1007592</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H11" s="7">
         <v>1463</v>
@@ -5276,10 +5282,10 @@
         <v>1020260</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>120</v>
@@ -5291,13 +5297,13 @@
         <v>2027852</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>78</v>
+        <v>343</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5365,13 +5371,13 @@
         <v>32647</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>195</v>
+        <v>345</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>343</v>
+        <v>37</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H13" s="7">
         <v>65</v>
@@ -5380,13 +5386,13 @@
         <v>42202</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>85</v>
+        <v>348</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M13" s="7">
         <v>94</v>
@@ -5395,13 +5401,13 @@
         <v>74849</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>157</v>
+        <v>276</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>348</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5416,13 +5422,13 @@
         <v>695054</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>351</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>350</v>
+        <v>44</v>
       </c>
       <c r="H14" s="7">
         <v>981</v>
@@ -5431,13 +5437,13 @@
         <v>831544</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>94</v>
+        <v>355</v>
       </c>
       <c r="M14" s="7">
         <v>1627</v>
@@ -5446,13 +5452,13 @@
         <v>1526598</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>354</v>
+        <v>203</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>165</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5520,13 +5526,13 @@
         <v>28335</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>86</v>
@@ -5535,13 +5541,13 @@
         <v>79732</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="M16" s="7">
         <v>113</v>
@@ -5553,10 +5559,10 @@
         <v>52</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>173</v>
+        <v>247</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5571,13 +5577,13 @@
         <v>937068</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="H17" s="7">
         <v>1473</v>
@@ -5586,13 +5592,13 @@
         <v>1066571</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="M17" s="7">
         <v>2452</v>
@@ -5604,10 +5610,10 @@
         <v>60</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>182</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5675,13 +5681,13 @@
         <v>113695</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="H19" s="7">
         <v>245</v>
@@ -5690,13 +5696,13 @@
         <v>192211</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>69</v>
+        <v>278</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="M19" s="7">
         <v>349</v>
@@ -5705,13 +5711,13 @@
         <v>305906</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>370</v>
+        <v>147</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>294</v>
+        <v>374</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>371</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5723,16 +5729,16 @@
         <v>3270</v>
       </c>
       <c r="D20" s="7">
-        <v>3269941</v>
+        <v>3269942</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H20" s="7">
         <v>5114</v>
@@ -5741,13 +5747,13 @@
         <v>3610651</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>78</v>
+        <v>284</v>
       </c>
       <c r="M20" s="7">
         <v>8384</v>
@@ -5756,13 +5762,13 @@
         <v>6880592</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>377</v>
+        <v>155</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>378</v>
+        <v>280</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>299</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5774,7 +5780,7 @@
         <v>3374</v>
       </c>
       <c r="D21" s="7">
-        <v>3383636</v>
+        <v>3383637</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>28</v>

--- a/data/trans_orig/P16A08-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A08-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{347A9086-DBE1-4280-B314-1126F9885CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{493DE94E-9FD4-43E7-97DC-031E478643F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DDEA8765-8D11-4A81-BB3E-7102EF86BDBC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FC7627AD-248D-4A02-B0C6-4E7DE604DAAB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="385">
   <si>
     <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -80,13 +80,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>7,16%</t>
+    <t>7,15%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>4,41%</t>
+    <t>4,47%</t>
   </si>
   <si>
     <t>1,47%</t>
@@ -95,1093 +95,1105 @@
     <t>0,44%</t>
   </si>
   <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
     <t>4,36%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
   </si>
   <si>
     <t>95,64%</t>
   </si>
   <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
   </si>
   <si>
     <t>2,87%</t>
   </si>
   <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
   </si>
   <si>
     <t>97,13%</t>
   </si>
   <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
   </si>
   <si>
     <t>5,12%</t>
   </si>
   <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
   </si>
   <si>
     <t>94,88%</t>
   </si>
   <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
   </si>
   <si>
     <t>4,26%</t>
   </si>
   <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
   </si>
   <si>
     <t>95,74%</t>
   </si>
   <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
     <t>94,98%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
   </si>
 </sst>
 </file>
@@ -1593,7 +1605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB50AF2B-A540-40DE-B21F-52DA90B9DDA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B177FC3-E4FE-49E2-AC1C-FCC2EE7F30C5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2218,7 +2230,7 @@
         <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2233,13 +2245,13 @@
         <v>663754</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>666</v>
@@ -2248,13 +2260,13 @@
         <v>654300</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>1293</v>
@@ -2263,13 +2275,13 @@
         <v>1318054</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2325,7 +2337,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2337,13 +2349,13 @@
         <v>28137</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H16" s="7">
         <v>50</v>
@@ -2352,13 +2364,13 @@
         <v>51876</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M16" s="7">
         <v>78</v>
@@ -2367,13 +2379,13 @@
         <v>80013</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2388,13 +2400,13 @@
         <v>914085</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H17" s="7">
         <v>947</v>
@@ -2403,13 +2415,13 @@
         <v>986736</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M17" s="7">
         <v>1913</v>
@@ -2418,13 +2430,13 @@
         <v>1900821</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2492,13 +2504,13 @@
         <v>78213</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H19" s="7">
         <v>128</v>
@@ -2507,13 +2519,13 @@
         <v>132277</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M19" s="7">
         <v>202</v>
@@ -2522,13 +2534,13 @@
         <v>210489</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2543,13 +2555,13 @@
         <v>3197312</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H20" s="7">
         <v>3169</v>
@@ -2558,28 +2570,28 @@
         <v>3246921</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M20" s="7">
         <v>6308</v>
       </c>
       <c r="N20" s="7">
-        <v>6444233</v>
+        <v>6444234</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2621,7 +2633,7 @@
         <v>6510</v>
       </c>
       <c r="N21" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -2635,7 +2647,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2656,7 +2668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590B42B6-AFAA-4232-8429-66134C52DB56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C8CE4A-7060-47E9-BE81-AD6D992A357B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2673,7 +2685,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2780,13 +2792,13 @@
         <v>2670</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -2795,13 +2807,13 @@
         <v>6270</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -2810,13 +2822,13 @@
         <v>8941</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,10 +2843,10 @@
         <v>112280</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>22</v>
@@ -2846,13 +2858,13 @@
         <v>105635</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="M5" s="7">
         <v>212</v>
@@ -2861,13 +2873,13 @@
         <v>217914</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2935,13 +2947,13 @@
         <v>12255</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -2950,13 +2962,13 @@
         <v>24899</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="M7" s="7">
         <v>37</v>
@@ -2965,13 +2977,13 @@
         <v>37154</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2986,13 +2998,13 @@
         <v>573559</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H8" s="7">
         <v>523</v>
@@ -3001,13 +3013,13 @@
         <v>556547</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="M8" s="7">
         <v>1061</v>
@@ -3016,13 +3028,13 @@
         <v>1130106</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3090,13 +3102,13 @@
         <v>36587</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H10" s="7">
         <v>55</v>
@@ -3105,13 +3117,13 @@
         <v>59206</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="M10" s="7">
         <v>88</v>
@@ -3120,13 +3132,13 @@
         <v>95793</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3141,13 +3153,13 @@
         <v>981360</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H11" s="7">
         <v>880</v>
@@ -3156,13 +3168,13 @@
         <v>967482</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="M11" s="7">
         <v>1783</v>
@@ -3171,13 +3183,13 @@
         <v>1948842</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3245,13 +3257,13 @@
         <v>30816</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -3260,13 +3272,13 @@
         <v>44092</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -3275,13 +3287,13 @@
         <v>74908</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,13 +3308,13 @@
         <v>725722</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="H14" s="7">
         <v>665</v>
@@ -3311,13 +3323,13 @@
         <v>732191</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M14" s="7">
         <v>1327</v>
@@ -3326,13 +3338,13 @@
         <v>1457913</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3388,7 +3400,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3400,13 +3412,13 @@
         <v>34282</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>51</v>
+        <v>186</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H16" s="7">
         <v>58</v>
@@ -3415,13 +3427,13 @@
         <v>60738</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>192</v>
+        <v>69</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M16" s="7">
         <v>90</v>
@@ -3430,13 +3442,13 @@
         <v>95020</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,13 +3463,13 @@
         <v>909657</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>61</v>
+        <v>195</v>
       </c>
       <c r="H17" s="7">
         <v>942</v>
@@ -3466,13 +3478,13 @@
         <v>988025</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="M17" s="7">
         <v>1817</v>
@@ -3481,13 +3493,13 @@
         <v>1897682</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3555,13 +3567,13 @@
         <v>116610</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="H19" s="7">
         <v>183</v>
@@ -3570,13 +3582,13 @@
         <v>195206</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M19" s="7">
         <v>288</v>
@@ -3585,13 +3597,13 @@
         <v>311815</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>212</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,13 +3618,13 @@
         <v>3302578</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H20" s="7">
         <v>3103</v>
@@ -3621,28 +3633,28 @@
         <v>3349880</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M20" s="7">
         <v>6200</v>
       </c>
       <c r="N20" s="7">
-        <v>6652459</v>
+        <v>6652458</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>219</v>
+        <v>93</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3684,7 +3696,7 @@
         <v>6488</v>
       </c>
       <c r="N21" s="7">
-        <v>6964274</v>
+        <v>6964273</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -3698,7 +3710,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3719,7 +3731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFECD0B-FF0C-4675-ABB4-0E3CB050A963}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA19F9E-E912-4E30-8D8A-42CEDD9BAC0B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3736,7 +3748,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3843,13 +3855,13 @@
         <v>794</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3858,13 +3870,13 @@
         <v>2537</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -3873,13 +3885,13 @@
         <v>3331</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>142</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3894,10 +3906,10 @@
         <v>115752</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>118</v>
+        <v>200</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>22</v>
@@ -3909,10 +3921,10 @@
         <v>110823</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>22</v>
@@ -3924,13 +3936,13 @@
         <v>226575</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,13 +4010,13 @@
         <v>17522</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>86</v>
+        <v>229</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -4013,13 +4025,13 @@
         <v>21648</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>235</v>
+        <v>33</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -4028,13 +4040,13 @@
         <v>39170</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,13 +4061,13 @@
         <v>540732</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>96</v>
+        <v>238</v>
       </c>
       <c r="H8" s="7">
         <v>530</v>
@@ -4064,13 +4076,13 @@
         <v>537831</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>243</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7">
         <v>1052</v>
@@ -4079,13 +4091,13 @@
         <v>1078563</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,13 +4165,13 @@
         <v>28776</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H10" s="7">
         <v>57</v>
@@ -4168,13 +4180,13 @@
         <v>61176</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M10" s="7">
         <v>83</v>
@@ -4183,13 +4195,13 @@
         <v>89952</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>18</v>
+        <v>249</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,13 +4216,13 @@
         <v>993655</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>254</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H11" s="7">
         <v>920</v>
@@ -4219,13 +4231,13 @@
         <v>981737</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M11" s="7">
         <v>1845</v>
@@ -4234,7 +4246,7 @@
         <v>1975392</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>26</v>
+        <v>257</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>258</v>
@@ -4338,10 +4350,10 @@
         <v>77085</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>266</v>
@@ -4389,13 +4401,13 @@
         <v>1467478</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>273</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4451,7 +4463,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4463,10 +4475,10 @@
         <v>34033</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>274</v>
@@ -4493,10 +4505,10 @@
         <v>85160</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>279</v>
@@ -4514,13 +4526,13 @@
         <v>903534</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>280</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H17" s="7">
         <v>913</v>
@@ -4544,13 +4556,13 @@
         <v>1896186</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4621,10 +4633,10 @@
         <v>53</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>51</v>
+        <v>286</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>195</v>
+        <v>287</v>
       </c>
       <c r="H19" s="7">
         <v>177</v>
@@ -4633,13 +4645,13 @@
         <v>190462</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M19" s="7">
         <v>277</v>
@@ -4648,10 +4660,10 @@
         <v>294698</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>290</v>
+        <v>86</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>291</v>
@@ -4672,10 +4684,10 @@
         <v>62</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>204</v>
+        <v>292</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>61</v>
+        <v>293</v>
       </c>
       <c r="H20" s="7">
         <v>3161</v>
@@ -4684,13 +4696,13 @@
         <v>3354080</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M20" s="7">
         <v>6292</v>
@@ -4699,13 +4711,13 @@
         <v>6644194</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>297</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4761,7 +4773,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4782,7 +4794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E3ED47-0E58-4174-B399-B8D7FC7C7F05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B322BC84-715A-4B88-BBDB-D8FEF1BA0602}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4924,10 +4936,10 @@
         <v>302</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>158</v>
+        <v>303</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -4936,10 +4948,10 @@
         <v>10939</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>305</v>
+        <v>186</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>306</v>
@@ -4978,7 +4990,7 @@
         <v>311</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>167</v>
+        <v>312</v>
       </c>
       <c r="M5" s="7">
         <v>348</v>
@@ -4987,13 +4999,13 @@
         <v>221419</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>314</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5061,7 +5073,7 @@
         <v>17368</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>315</v>
@@ -5082,7 +5094,7 @@
         <v>318</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -5091,13 +5103,13 @@
         <v>41181</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5112,13 +5124,13 @@
         <v>531934</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H8" s="7">
         <v>964</v>
@@ -5127,13 +5139,13 @@
         <v>569149</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M8" s="7">
         <v>1559</v>
@@ -5142,13 +5154,13 @@
         <v>1101083</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>326</v>
+        <v>143</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>328</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5216,13 +5228,13 @@
         <v>31656</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H10" s="7">
         <v>53</v>
@@ -5231,13 +5243,13 @@
         <v>39214</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M10" s="7">
         <v>82</v>
@@ -5246,13 +5258,13 @@
         <v>70870</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>335</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5267,13 +5279,13 @@
         <v>1007592</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="H11" s="7">
         <v>1463</v>
@@ -5282,13 +5294,13 @@
         <v>1020260</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M11" s="7">
         <v>2398</v>
@@ -5297,13 +5309,13 @@
         <v>2027852</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>344</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5371,13 +5383,13 @@
         <v>32647</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>37</v>
+        <v>340</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H13" s="7">
         <v>65</v>
@@ -5386,13 +5398,13 @@
         <v>42202</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="M13" s="7">
         <v>94</v>
@@ -5401,13 +5413,13 @@
         <v>74849</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>276</v>
+        <v>346</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5422,13 +5434,13 @@
         <v>695054</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>44</v>
+        <v>349</v>
       </c>
       <c r="H14" s="7">
         <v>981</v>
@@ -5437,13 +5449,13 @@
         <v>831544</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="M14" s="7">
         <v>1627</v>
@@ -5452,13 +5464,13 @@
         <v>1526598</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>283</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5514,7 +5526,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5526,13 +5538,13 @@
         <v>28335</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>86</v>
@@ -5541,13 +5553,13 @@
         <v>79732</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="M16" s="7">
         <v>113</v>
@@ -5556,10 +5568,10 @@
         <v>108067</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>52</v>
+        <v>360</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>247</v>
+        <v>361</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>362</v>
@@ -5580,10 +5592,10 @@
         <v>363</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>364</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H17" s="7">
         <v>1473</v>
@@ -5592,13 +5604,13 @@
         <v>1066571</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>367</v>
+        <v>272</v>
       </c>
       <c r="M17" s="7">
         <v>2452</v>
@@ -5607,13 +5619,13 @@
         <v>2003639</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>60</v>
+        <v>368</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5681,13 +5693,13 @@
         <v>113695</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H19" s="7">
         <v>245</v>
@@ -5696,13 +5708,13 @@
         <v>192211</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>278</v>
+        <v>84</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M19" s="7">
         <v>349</v>
@@ -5711,13 +5723,13 @@
         <v>305906</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>147</v>
+        <v>376</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>374</v>
+        <v>49</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>274</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5732,13 +5744,13 @@
         <v>3269942</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H20" s="7">
         <v>5114</v>
@@ -5747,13 +5759,13 @@
         <v>3610651</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>284</v>
+        <v>91</v>
       </c>
       <c r="M20" s="7">
         <v>8384</v>
@@ -5762,13 +5774,13 @@
         <v>6880592</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>155</v>
+        <v>383</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>280</v>
+        <v>384</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>380</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,7 +5836,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A08-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A08-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{493DE94E-9FD4-43E7-97DC-031E478643F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4536F0F-FAAC-4656-B434-3C69FC0A3DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FC7627AD-248D-4A02-B0C6-4E7DE604DAAB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{67923CE4-E992-4EB1-8E96-FE037EAD04DA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="379">
   <si>
     <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>2,04%</t>
@@ -80,13 +80,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>7,15%</t>
+    <t>7,16%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>4,47%</t>
+    <t>4,41%</t>
   </si>
   <si>
     <t>1,47%</t>
@@ -95,7 +95,7 @@
     <t>0,44%</t>
   </si>
   <si>
-    <t>3,97%</t>
+    <t>4,36%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,7 +104,7 @@
     <t>97,96%</t>
   </si>
   <si>
-    <t>92,85%</t>
+    <t>92,84%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -113,13 +113,13 @@
     <t>99,11%</t>
   </si>
   <si>
-    <t>95,53%</t>
+    <t>95,59%</t>
   </si>
   <si>
     <t>98,53%</t>
   </si>
   <si>
-    <t>96,03%</t>
+    <t>95,64%</t>
   </si>
   <si>
     <t>99,56%</t>
@@ -137,1063 +137,1045 @@
     <t>0,83%</t>
   </si>
   <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
   </si>
   <si>
     <t>3,77%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
   </si>
   <si>
     <t>96,23%</t>
   </si>
   <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
+    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
   </si>
   <si>
     <t>5,2%</t>
   </si>
   <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
   </si>
   <si>
     <t>94,8%</t>
   </si>
   <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
+    <t>92,56%</t>
   </si>
   <si>
     <t>3,36%</t>
   </si>
   <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
   </si>
   <si>
     <t>5,05%</t>
   </si>
   <si>
-    <t>6,52%</t>
+    <t>6,65%</t>
   </si>
   <si>
     <t>4,26%</t>
   </si>
   <si>
-    <t>5,02%</t>
+    <t>5,11%</t>
   </si>
   <si>
     <t>96,64%</t>
   </si>
   <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
   </si>
   <si>
     <t>94,95%</t>
   </si>
   <si>
-    <t>93,48%</t>
+    <t>93,35%</t>
   </si>
   <si>
     <t>95,74%</t>
   </si>
   <si>
-    <t>94,98%</t>
+    <t>94,89%</t>
   </si>
 </sst>
 </file>
@@ -1605,7 +1587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B177FC3-E4FE-49E2-AC1C-FCC2EE7F30C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D39421-C7B8-4E7B-AF65-985F93E198A0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2230,7 +2212,7 @@
         <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2245,13 +2227,13 @@
         <v>663754</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>666</v>
@@ -2260,13 +2242,13 @@
         <v>654300</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>1293</v>
@@ -2275,13 +2257,13 @@
         <v>1318054</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2337,7 +2319,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2349,13 +2331,13 @@
         <v>28137</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>50</v>
@@ -2364,13 +2346,13 @@
         <v>51876</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>78</v>
@@ -2379,13 +2361,13 @@
         <v>80013</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2400,13 +2382,13 @@
         <v>914085</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>947</v>
@@ -2415,13 +2397,13 @@
         <v>986736</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>1913</v>
@@ -2430,13 +2412,13 @@
         <v>1900821</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2504,13 +2486,13 @@
         <v>78213</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>128</v>
@@ -2519,13 +2501,13 @@
         <v>132277</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>202</v>
@@ -2534,13 +2516,13 @@
         <v>210489</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2555,13 +2537,13 @@
         <v>3197312</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>3169</v>
@@ -2570,28 +2552,28 @@
         <v>3246921</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>6308</v>
       </c>
       <c r="N20" s="7">
-        <v>6444234</v>
+        <v>6444233</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2633,7 +2615,7 @@
         <v>6510</v>
       </c>
       <c r="N21" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -2647,7 +2629,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2668,7 +2650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C8CE4A-7060-47E9-BE81-AD6D992A357B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77EB3018-BF41-4E32-B402-8BFFDD48FFA9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2685,7 +2667,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2792,13 +2774,13 @@
         <v>2670</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -2807,13 +2789,13 @@
         <v>6270</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -2822,13 +2804,13 @@
         <v>8941</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,10 +2825,10 @@
         <v>112280</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>22</v>
@@ -2858,13 +2840,13 @@
         <v>105635</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M5" s="7">
         <v>212</v>
@@ -2873,13 +2855,13 @@
         <v>217914</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2947,13 +2929,13 @@
         <v>12255</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -2962,13 +2944,13 @@
         <v>24899</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="M7" s="7">
         <v>37</v>
@@ -2977,13 +2959,13 @@
         <v>37154</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,13 +2980,13 @@
         <v>573559</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H8" s="7">
         <v>523</v>
@@ -3013,28 +2995,28 @@
         <v>556547</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="M8" s="7">
         <v>1061</v>
       </c>
       <c r="N8" s="7">
-        <v>1130106</v>
+        <v>1130105</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,7 +3058,7 @@
         <v>1098</v>
       </c>
       <c r="N9" s="7">
-        <v>1167260</v>
+        <v>1167259</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>28</v>
@@ -3102,13 +3084,13 @@
         <v>36587</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="H10" s="7">
         <v>55</v>
@@ -3117,13 +3099,13 @@
         <v>59206</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="M10" s="7">
         <v>88</v>
@@ -3132,13 +3114,13 @@
         <v>95793</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3153,13 +3135,13 @@
         <v>981360</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H11" s="7">
         <v>880</v>
@@ -3168,13 +3150,13 @@
         <v>967482</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>165</v>
+        <v>24</v>
       </c>
       <c r="M11" s="7">
         <v>1783</v>
@@ -3183,13 +3165,13 @@
         <v>1948842</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,13 +3239,13 @@
         <v>30816</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -3272,13 +3254,13 @@
         <v>44092</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -3287,13 +3269,13 @@
         <v>74908</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,13 +3290,13 @@
         <v>725722</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="H14" s="7">
         <v>665</v>
@@ -3323,13 +3305,13 @@
         <v>732191</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>1327</v>
@@ -3338,13 +3320,13 @@
         <v>1457913</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3400,7 +3382,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3412,13 +3394,13 @@
         <v>34282</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="H16" s="7">
         <v>58</v>
@@ -3427,13 +3409,13 @@
         <v>60738</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="M16" s="7">
         <v>90</v>
@@ -3442,13 +3424,13 @@
         <v>95020</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3463,13 +3445,13 @@
         <v>909657</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="H17" s="7">
         <v>942</v>
@@ -3478,13 +3460,13 @@
         <v>988025</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="M17" s="7">
         <v>1817</v>
@@ -3493,13 +3475,13 @@
         <v>1897682</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,13 +3549,13 @@
         <v>116610</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="H19" s="7">
         <v>183</v>
@@ -3582,13 +3564,13 @@
         <v>195206</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="M19" s="7">
         <v>288</v>
@@ -3597,13 +3579,13 @@
         <v>311815</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>85</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,13 +3600,13 @@
         <v>3302578</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="H20" s="7">
         <v>3103</v>
@@ -3633,28 +3615,28 @@
         <v>3349880</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="M20" s="7">
         <v>6200</v>
       </c>
       <c r="N20" s="7">
-        <v>6652458</v>
+        <v>6652459</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>93</v>
+        <v>225</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3696,7 +3678,7 @@
         <v>6488</v>
       </c>
       <c r="N21" s="7">
-        <v>6964273</v>
+        <v>6964274</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -3710,7 +3692,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3731,7 +3713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA19F9E-E912-4E30-8D8A-42CEDD9BAC0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D818B0A2-83E3-4E9F-913C-96C3714AF726}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3748,7 +3730,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3855,13 +3837,13 @@
         <v>794</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3870,13 +3852,13 @@
         <v>2537</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -3885,13 +3867,13 @@
         <v>3331</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,10 +3888,10 @@
         <v>115752</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>200</v>
+        <v>149</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>22</v>
@@ -3921,10 +3903,10 @@
         <v>110823</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>22</v>
@@ -3936,13 +3918,13 @@
         <v>226575</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,13 +3992,13 @@
         <v>17522</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -4025,13 +4007,13 @@
         <v>21648</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>33</v>
+        <v>244</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -4040,13 +4022,13 @@
         <v>39170</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>234</v>
+        <v>51</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4043,13 @@
         <v>540732</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="H8" s="7">
         <v>530</v>
@@ -4076,13 +4058,13 @@
         <v>537831</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>41</v>
+        <v>253</v>
       </c>
       <c r="M8" s="7">
         <v>1052</v>
@@ -4091,13 +4073,13 @@
         <v>1078563</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>243</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,13 +4147,13 @@
         <v>28776</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>245</v>
+        <v>177</v>
       </c>
       <c r="H10" s="7">
         <v>57</v>
@@ -4180,13 +4162,13 @@
         <v>61176</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="M10" s="7">
         <v>83</v>
@@ -4195,13 +4177,13 @@
         <v>89952</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,13 +4198,13 @@
         <v>993655</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>253</v>
+        <v>187</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H11" s="7">
         <v>920</v>
@@ -4231,13 +4213,13 @@
         <v>981737</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="M11" s="7">
         <v>1845</v>
@@ -4246,13 +4228,13 @@
         <v>1975392</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>257</v>
+        <v>26</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,13 +4302,13 @@
         <v>23111</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -4335,13 +4317,13 @@
         <v>53974</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="M13" s="7">
         <v>73</v>
@@ -4350,13 +4332,13 @@
         <v>77085</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,13 +4353,13 @@
         <v>736441</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="H14" s="7">
         <v>685</v>
@@ -4386,13 +4368,13 @@
         <v>731037</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="M14" s="7">
         <v>1359</v>
@@ -4401,13 +4383,13 @@
         <v>1467478</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4463,7 +4445,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4475,13 +4457,13 @@
         <v>34033</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H16" s="7">
         <v>46</v>
@@ -4490,13 +4472,13 @@
         <v>51126</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>275</v>
+        <v>159</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>276</v>
+        <v>163</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="M16" s="7">
         <v>80</v>
@@ -4505,13 +4487,13 @@
         <v>85160</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>84</v>
+        <v>283</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,13 +4508,13 @@
         <v>903534</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>280</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="H17" s="7">
         <v>913</v>
@@ -4541,13 +4523,13 @@
         <v>992653</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>281</v>
+        <v>166</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>283</v>
+        <v>172</v>
       </c>
       <c r="M17" s="7">
         <v>1811</v>
@@ -4556,13 +4538,13 @@
         <v>1896186</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>91</v>
+        <v>287</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,10 +4615,10 @@
         <v>53</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>287</v>
+        <v>163</v>
       </c>
       <c r="H19" s="7">
         <v>177</v>
@@ -4645,13 +4627,13 @@
         <v>190462</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="M19" s="7">
         <v>277</v>
@@ -4660,13 +4642,13 @@
         <v>294698</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>290</v>
+        <v>147</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>86</v>
+        <v>294</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>291</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4684,10 +4666,10 @@
         <v>62</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>292</v>
+        <v>172</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H20" s="7">
         <v>3161</v>
@@ -4696,13 +4678,13 @@
         <v>3354080</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M20" s="7">
         <v>6292</v>
@@ -4711,13 +4693,13 @@
         <v>6644194</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>296</v>
+        <v>155</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>297</v>
+        <v>223</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>95</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4773,7 +4755,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4794,7 +4776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B322BC84-715A-4B88-BBDB-D8FEF1BA0602}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C71EC43-2C0A-4B73-887C-83FD948DA14F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4811,7 +4793,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4918,13 +4900,13 @@
         <v>3690</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -4933,13 +4915,13 @@
         <v>7250</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>303</v>
+        <v>54</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -4948,13 +4930,13 @@
         <v>10939</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>186</v>
+        <v>73</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4969,13 +4951,13 @@
         <v>98292</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H5" s="7">
         <v>233</v>
@@ -4984,13 +4966,13 @@
         <v>123126</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>312</v>
+        <v>64</v>
       </c>
       <c r="M5" s="7">
         <v>348</v>
@@ -5005,7 +4987,7 @@
         <v>314</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>195</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5073,7 +5055,7 @@
         <v>17368</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>315</v>
@@ -5094,7 +5076,7 @@
         <v>318</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>121</v>
+        <v>319</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -5103,13 +5085,13 @@
         <v>41181</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>135</v>
+        <v>320</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>137</v>
+        <v>321</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>319</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5124,13 +5106,13 @@
         <v>531934</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H8" s="7">
         <v>964</v>
@@ -5139,13 +5121,13 @@
         <v>569149</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>128</v>
+        <v>325</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M8" s="7">
         <v>1559</v>
@@ -5154,13 +5136,13 @@
         <v>1101083</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>143</v>
+        <v>327</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>147</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5228,13 +5210,13 @@
         <v>31656</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="H10" s="7">
         <v>53</v>
@@ -5243,13 +5225,13 @@
         <v>39214</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="M10" s="7">
         <v>82</v>
@@ -5258,13 +5240,13 @@
         <v>70870</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>51</v>
+        <v>335</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>331</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5279,13 +5261,13 @@
         <v>1007592</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H11" s="7">
         <v>1463</v>
@@ -5294,13 +5276,13 @@
         <v>1020260</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M11" s="7">
         <v>2398</v>
@@ -5309,13 +5291,13 @@
         <v>2027852</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>338</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5383,13 +5365,13 @@
         <v>32647</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>339</v>
+        <v>195</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H13" s="7">
         <v>65</v>
@@ -5398,13 +5380,13 @@
         <v>42202</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>343</v>
+        <v>85</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M13" s="7">
         <v>94</v>
@@ -5413,13 +5395,13 @@
         <v>74849</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>346</v>
+        <v>157</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>192</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5434,13 +5416,13 @@
         <v>695054</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>347</v>
+        <v>205</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H14" s="7">
         <v>981</v>
@@ -5449,13 +5431,13 @@
         <v>831544</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>352</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>1627</v>
@@ -5467,10 +5449,10 @@
         <v>353</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>199</v>
+        <v>354</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>354</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5526,7 +5508,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5541,10 +5523,10 @@
         <v>355</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>356</v>
+        <v>315</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>357</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>86</v>
@@ -5553,13 +5535,13 @@
         <v>79732</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="M16" s="7">
         <v>113</v>
@@ -5568,13 +5550,13 @@
         <v>108067</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>360</v>
+        <v>52</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>361</v>
+        <v>173</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5589,13 +5571,13 @@
         <v>937068</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>364</v>
+        <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="H17" s="7">
         <v>1473</v>
@@ -5604,13 +5586,13 @@
         <v>1066571</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>272</v>
+        <v>363</v>
       </c>
       <c r="M17" s="7">
         <v>2452</v>
@@ -5619,13 +5601,13 @@
         <v>2003639</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>368</v>
+        <v>60</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>370</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5693,13 +5675,13 @@
         <v>113695</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="H19" s="7">
         <v>245</v>
@@ -5708,13 +5690,13 @@
         <v>192211</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="M19" s="7">
         <v>349</v>
@@ -5723,13 +5705,13 @@
         <v>305906</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>49</v>
+        <v>294</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5741,16 +5723,16 @@
         <v>3270</v>
       </c>
       <c r="D20" s="7">
-        <v>3269942</v>
+        <v>3269941</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="H20" s="7">
         <v>5114</v>
@@ -5759,13 +5741,13 @@
         <v>3610651</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="M20" s="7">
         <v>8384</v>
@@ -5774,13 +5756,13 @@
         <v>6880592</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>57</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5792,7 +5774,7 @@
         <v>3374</v>
       </c>
       <c r="D21" s="7">
-        <v>3383637</v>
+        <v>3383636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>28</v>
@@ -5836,7 +5818,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A08-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A08-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4536F0F-FAAC-4656-B434-3C69FC0A3DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B76C01F9-453C-45CF-81AE-D28848B5A676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{67923CE4-E992-4EB1-8E96-FE037EAD04DA}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1FE094F7-4F13-4865-9DA2-FE9B6C49F989}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="340">
   <si>
     <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,1114 +68,997 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
   </si>
   <si>
     <t>4,41%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
   </si>
   <si>
     <t>4,36%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
   </si>
   <si>
     <t>95,64%</t>
   </si>
   <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
   </si>
   <si>
     <t>4,21%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
   </si>
   <si>
     <t>95,79%</t>
   </si>
   <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
   </si>
 </sst>
 </file>
@@ -1587,8 +1470,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D39421-C7B8-4E7B-AF65-985F93E198A0}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A11B569-3646-4F49-B35E-33864D1B3E4A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1705,10 +1588,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>2357</v>
+        <v>11972</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1720,85 +1603,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>1001</v>
+        <v>14896</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="N4" s="7">
-        <v>3358</v>
+        <v>26868</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>103</v>
+        <v>670</v>
       </c>
       <c r="D5" s="7">
-        <v>113001</v>
+        <v>681022</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>127</v>
+        <v>681</v>
       </c>
       <c r="I5" s="7">
-        <v>111754</v>
+        <v>673455</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>230</v>
+        <v>1351</v>
       </c>
       <c r="N5" s="7">
-        <v>224755</v>
+        <v>1354477</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1807,153 +1690,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>682</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>692994</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1378</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1381345</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D7" s="7">
-        <v>9614</v>
+        <v>23350</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="I7" s="7">
-        <v>13895</v>
+        <v>35963</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="N7" s="7">
-        <v>23510</v>
+        <v>59313</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>567</v>
+        <v>876</v>
       </c>
       <c r="D8" s="7">
-        <v>568022</v>
+        <v>938450</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>554</v>
+        <v>875</v>
       </c>
       <c r="I8" s="7">
-        <v>561701</v>
+        <v>932430</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1121</v>
+        <v>1751</v>
       </c>
       <c r="N8" s="7">
-        <v>1129722</v>
+        <v>1870880</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1962,153 +1845,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>577</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>577636</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1145</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1153232</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>23350</v>
+        <v>14755</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I10" s="7">
-        <v>35963</v>
+        <v>29541</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="N10" s="7">
-        <v>59313</v>
+        <v>44296</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>876</v>
+        <v>627</v>
       </c>
       <c r="D11" s="7">
-        <v>938450</v>
+        <v>663754</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>875</v>
+        <v>666</v>
       </c>
       <c r="I11" s="7">
-        <v>932430</v>
+        <v>654300</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1751</v>
+        <v>1293</v>
       </c>
       <c r="N11" s="7">
-        <v>1870880</v>
+        <v>1318054</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2117,153 +2000,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7">
-        <v>14755</v>
+        <v>28137</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I13" s="7">
-        <v>29541</v>
+        <v>51876</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="N13" s="7">
-        <v>44296</v>
+        <v>80013</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>627</v>
+        <v>966</v>
       </c>
       <c r="D14" s="7">
-        <v>663754</v>
+        <v>914085</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>666</v>
+        <v>947</v>
       </c>
       <c r="I14" s="7">
-        <v>654300</v>
+        <v>986736</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1293</v>
+        <v>1913</v>
       </c>
       <c r="N14" s="7">
-        <v>1318054</v>
+        <v>1900821</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2272,153 +2155,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="D16" s="7">
-        <v>28137</v>
+        <v>78213</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="I16" s="7">
-        <v>51876</v>
+        <v>132277</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="N16" s="7">
-        <v>80013</v>
+        <v>210489</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>966</v>
+        <v>3139</v>
       </c>
       <c r="D17" s="7">
-        <v>914085</v>
+        <v>3197312</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>947</v>
+        <v>3169</v>
       </c>
       <c r="I17" s="7">
-        <v>986736</v>
+        <v>3246920</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>1913</v>
+        <v>6308</v>
       </c>
       <c r="N17" s="7">
-        <v>1900821</v>
+        <v>6444233</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2427,217 +2310,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3213</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3275525</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6510</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6654722</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>74</v>
-      </c>
-      <c r="D19" s="7">
-        <v>78213</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" s="7">
-        <v>128</v>
-      </c>
-      <c r="I19" s="7">
-        <v>132277</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M19" s="7">
-        <v>202</v>
-      </c>
-      <c r="N19" s="7">
-        <v>210489</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3139</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3197312</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3169</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3246921</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6308</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6444233</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3213</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3275525</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6510</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6654722</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2650,8 +2377,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77EB3018-BF41-4E32-B402-8BFFDD48FFA9}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD04D8EA-8604-4E56-ABA9-327D70302ECC}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2667,7 +2394,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2768,100 +2495,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>2670</v>
+        <v>14925</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="I4" s="7">
-        <v>6270</v>
+        <v>31170</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="N4" s="7">
-        <v>8941</v>
+        <v>46095</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>657</v>
+      </c>
+      <c r="D5" s="7">
+        <v>685839</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" s="7">
+        <v>616</v>
+      </c>
+      <c r="I5" s="7">
+        <v>662181</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="7">
-        <v>112280</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="7">
-        <v>93</v>
-      </c>
-      <c r="I5" s="7">
-        <v>105635</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>133</v>
-      </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="M5" s="7">
-        <v>212</v>
+        <v>1273</v>
       </c>
       <c r="N5" s="7">
-        <v>217914</v>
+        <v>1348020</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2870,153 +2597,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>121</v>
+        <v>671</v>
       </c>
       <c r="D6" s="7">
-        <v>114950</v>
+        <v>700764</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>647</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>693351</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>220</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>226855</v>
+        <v>1394115</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D7" s="7">
-        <v>12255</v>
+        <v>36587</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="I7" s="7">
-        <v>24899</v>
+        <v>59206</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="N7" s="7">
-        <v>37154</v>
+        <v>95793</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>538</v>
+        <v>903</v>
       </c>
       <c r="D8" s="7">
-        <v>573559</v>
+        <v>981360</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="H8" s="7">
-        <v>523</v>
+        <v>880</v>
       </c>
       <c r="I8" s="7">
-        <v>556547</v>
+        <v>967482</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="M8" s="7">
-        <v>1061</v>
+        <v>1783</v>
       </c>
       <c r="N8" s="7">
-        <v>1130105</v>
+        <v>1948842</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,153 +2752,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>550</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>585814</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>548</v>
+        <v>935</v>
       </c>
       <c r="I9" s="7">
-        <v>581446</v>
+        <v>1026688</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1098</v>
+        <v>1871</v>
       </c>
       <c r="N9" s="7">
-        <v>1167259</v>
+        <v>2044635</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D10" s="7">
-        <v>36587</v>
+        <v>30816</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I10" s="7">
-        <v>59206</v>
+        <v>44092</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="N10" s="7">
-        <v>95793</v>
+        <v>74908</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>903</v>
+        <v>662</v>
       </c>
       <c r="D11" s="7">
-        <v>981360</v>
+        <v>725722</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
-        <v>880</v>
+        <v>665</v>
       </c>
       <c r="I11" s="7">
-        <v>967482</v>
+        <v>732191</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
-        <v>1783</v>
+        <v>1327</v>
       </c>
       <c r="N11" s="7">
-        <v>1948842</v>
+        <v>1457913</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3180,153 +2907,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>688</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>756538</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>935</v>
+        <v>704</v>
       </c>
       <c r="I12" s="7">
-        <v>1026688</v>
+        <v>776283</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1871</v>
+        <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>2044635</v>
+        <v>1532821</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D13" s="7">
-        <v>30816</v>
+        <v>34282</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="I13" s="7">
-        <v>44092</v>
+        <v>60738</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="N13" s="7">
-        <v>74908</v>
+        <v>95020</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>662</v>
+        <v>875</v>
       </c>
       <c r="D14" s="7">
-        <v>725722</v>
+        <v>909657</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
-        <v>665</v>
+        <v>942</v>
       </c>
       <c r="I14" s="7">
-        <v>732191</v>
+        <v>988025</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
-        <v>1327</v>
+        <v>1817</v>
       </c>
       <c r="N14" s="7">
-        <v>1457913</v>
+        <v>1897683</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3335,153 +3062,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>688</v>
+        <v>907</v>
       </c>
       <c r="D15" s="7">
-        <v>756538</v>
+        <v>943939</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>704</v>
+        <v>1000</v>
       </c>
       <c r="I15" s="7">
-        <v>776283</v>
+        <v>1048763</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1392</v>
+        <v>1907</v>
       </c>
       <c r="N15" s="7">
-        <v>1532821</v>
+        <v>1992703</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="D16" s="7">
-        <v>34282</v>
+        <v>116610</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
-        <v>58</v>
+        <v>183</v>
       </c>
       <c r="I16" s="7">
-        <v>60738</v>
+        <v>195206</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
-        <v>90</v>
+        <v>288</v>
       </c>
       <c r="N16" s="7">
-        <v>95020</v>
+        <v>311815</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>875</v>
+        <v>3097</v>
       </c>
       <c r="D17" s="7">
-        <v>909657</v>
+        <v>3302578</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
-        <v>942</v>
+        <v>3103</v>
       </c>
       <c r="I17" s="7">
-        <v>988025</v>
+        <v>3349880</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
-        <v>1817</v>
+        <v>6200</v>
       </c>
       <c r="N17" s="7">
-        <v>1897682</v>
+        <v>6652459</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,217 +3217,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>907</v>
+        <v>3202</v>
       </c>
       <c r="D18" s="7">
-        <v>943939</v>
+        <v>3419188</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1000</v>
+        <v>3286</v>
       </c>
       <c r="I18" s="7">
-        <v>1048763</v>
+        <v>3545086</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1907</v>
+        <v>6488</v>
       </c>
       <c r="N18" s="7">
-        <v>1992702</v>
+        <v>6964274</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>105</v>
-      </c>
-      <c r="D19" s="7">
-        <v>116610</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H19" s="7">
-        <v>183</v>
-      </c>
-      <c r="I19" s="7">
-        <v>195206</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="M19" s="7">
-        <v>288</v>
-      </c>
-      <c r="N19" s="7">
-        <v>311815</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3097</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3302578</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3103</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3349880</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6200</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6652459</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3202</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3419188</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3286</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3545086</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6488</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6964274</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3713,8 +3284,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D818B0A2-83E3-4E9F-913C-96C3714AF726}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AFBB7A1-C027-4869-B807-D6CFCD45E7DF}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3730,7 +3301,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3831,100 +3402,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>794</v>
+        <v>18316</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="I4" s="7">
-        <v>2537</v>
+        <v>24185</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>229</v>
+        <v>124</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="N4" s="7">
-        <v>3331</v>
+        <v>42501</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>112</v>
+        <v>634</v>
       </c>
       <c r="D5" s="7">
-        <v>115752</v>
+        <v>656484</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>149</v>
+        <v>206</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>207</v>
       </c>
       <c r="H5" s="7">
-        <v>113</v>
+        <v>643</v>
       </c>
       <c r="I5" s="7">
-        <v>110823</v>
+        <v>648654</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>235</v>
+        <v>133</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
-        <v>225</v>
+        <v>1277</v>
       </c>
       <c r="N5" s="7">
-        <v>226575</v>
+        <v>1305138</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,153 +3504,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D7" s="7">
-        <v>17522</v>
+        <v>28776</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>241</v>
+        <v>89</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>242</v>
+        <v>146</v>
       </c>
       <c r="H7" s="7">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="I7" s="7">
-        <v>21648</v>
+        <v>61176</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="M7" s="7">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="N7" s="7">
-        <v>39170</v>
+        <v>89952</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>522</v>
+        <v>925</v>
       </c>
       <c r="D8" s="7">
-        <v>540732</v>
+        <v>993655</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>249</v>
+        <v>156</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>250</v>
+        <v>99</v>
       </c>
       <c r="H8" s="7">
-        <v>530</v>
+        <v>920</v>
       </c>
       <c r="I8" s="7">
-        <v>537831</v>
+        <v>981737</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="M8" s="7">
-        <v>1052</v>
+        <v>1845</v>
       </c>
       <c r="N8" s="7">
-        <v>1078563</v>
+        <v>1975392</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,153 +3659,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D10" s="7">
-        <v>28776</v>
+        <v>23111</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>104</v>
+        <v>226</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>177</v>
+        <v>227</v>
       </c>
       <c r="H10" s="7">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I10" s="7">
-        <v>61176</v>
+        <v>53974</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="M10" s="7">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="N10" s="7">
-        <v>89952</v>
+        <v>77085</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>925</v>
+        <v>674</v>
       </c>
       <c r="D11" s="7">
-        <v>993655</v>
+        <v>736441</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>187</v>
+        <v>233</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>114</v>
+        <v>234</v>
       </c>
       <c r="H11" s="7">
-        <v>920</v>
+        <v>685</v>
       </c>
       <c r="I11" s="7">
-        <v>981737</v>
+        <v>731037</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="M11" s="7">
-        <v>1845</v>
+        <v>1359</v>
       </c>
       <c r="N11" s="7">
-        <v>1975392</v>
+        <v>1467478</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>267</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4243,153 +3814,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D13" s="7">
-        <v>23111</v>
+        <v>34033</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>268</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>269</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="H13" s="7">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I13" s="7">
-        <v>53974</v>
+        <v>51126</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>271</v>
+        <v>126</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>272</v>
+        <v>131</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="M13" s="7">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="N13" s="7">
-        <v>77085</v>
+        <v>85160</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>88</v>
+        <v>240</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>55</v>
+        <v>241</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>674</v>
+        <v>898</v>
       </c>
       <c r="D14" s="7">
-        <v>736441</v>
+        <v>903534</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>275</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>277</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
-        <v>685</v>
+        <v>913</v>
       </c>
       <c r="I14" s="7">
-        <v>731037</v>
+        <v>992653</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>278</v>
+        <v>134</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>280</v>
+        <v>141</v>
       </c>
       <c r="M14" s="7">
-        <v>1359</v>
+        <v>1811</v>
       </c>
       <c r="N14" s="7">
-        <v>1467478</v>
+        <v>1896186</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>97</v>
+        <v>244</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>63</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4398,153 +3969,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="D16" s="7">
-        <v>34033</v>
+        <v>104236</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>191</v>
+        <v>38</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>192</v>
+        <v>247</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>272</v>
+        <v>131</v>
       </c>
       <c r="H16" s="7">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="I16" s="7">
-        <v>51126</v>
+        <v>190462</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>159</v>
+        <v>248</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>163</v>
+        <v>249</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="M16" s="7">
-        <v>80</v>
+        <v>277</v>
       </c>
       <c r="N16" s="7">
-        <v>85160</v>
+        <v>294698</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>285</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>898</v>
+        <v>3131</v>
       </c>
       <c r="D17" s="7">
-        <v>903534</v>
+        <v>3290114</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>47</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>280</v>
+        <v>141</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>253</v>
       </c>
       <c r="H17" s="7">
-        <v>913</v>
+        <v>3161</v>
       </c>
       <c r="I17" s="7">
-        <v>992653</v>
+        <v>3354080</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>166</v>
+        <v>254</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>172</v>
+        <v>256</v>
       </c>
       <c r="M17" s="7">
-        <v>1811</v>
+        <v>6292</v>
       </c>
       <c r="N17" s="7">
-        <v>1896186</v>
+        <v>6644194</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>288</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4553,217 +4124,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>100</v>
-      </c>
-      <c r="D19" s="7">
-        <v>104236</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="H19" s="7">
-        <v>177</v>
-      </c>
-      <c r="I19" s="7">
-        <v>190462</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="M19" s="7">
-        <v>277</v>
-      </c>
-      <c r="N19" s="7">
-        <v>294698</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3131</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3290114</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3161</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3354080</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6292</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6644194</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4776,8 +4191,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C71EC43-2C0A-4B73-887C-83FD948DA14F}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BEBAEB-8E29-4476-9B51-EF9D58B8E68E}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4793,7 +4208,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4894,100 +4309,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D4" s="7">
-        <v>3690</v>
+        <v>20989</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>301</v>
+        <v>114</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="H4" s="7">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="I4" s="7">
-        <v>7250</v>
+        <v>29226</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>54</v>
+        <v>263</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>305</v>
+        <v>264</v>
       </c>
       <c r="M4" s="7">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="N4" s="7">
-        <v>10939</v>
+        <v>50216</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>306</v>
+        <v>265</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>73</v>
+        <v>266</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>115</v>
+        <v>710</v>
       </c>
       <c r="D5" s="7">
-        <v>98292</v>
+        <v>613962</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>308</v>
+        <v>122</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>309</v>
+        <v>268</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="H5" s="7">
-        <v>233</v>
+        <v>1197</v>
       </c>
       <c r="I5" s="7">
-        <v>123126</v>
+        <v>646196</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>311</v>
+        <v>270</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>64</v>
+        <v>272</v>
       </c>
       <c r="M5" s="7">
-        <v>348</v>
+        <v>1907</v>
       </c>
       <c r="N5" s="7">
-        <v>221419</v>
+        <v>1260157</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>313</v>
+        <v>273</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>314</v>
+        <v>274</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>83</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4996,153 +4411,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>729</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>634951</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>242</v>
+        <v>1238</v>
       </c>
       <c r="I6" s="7">
-        <v>130376</v>
+        <v>675422</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>360</v>
+        <v>1967</v>
       </c>
       <c r="N6" s="7">
-        <v>232358</v>
+        <v>1310373</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7">
-        <v>17368</v>
+        <v>32277</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>109</v>
+        <v>197</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>316</v>
+        <v>262</v>
       </c>
       <c r="H7" s="7">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="I7" s="7">
-        <v>23813</v>
+        <v>34939</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
       <c r="M7" s="7">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="N7" s="7">
-        <v>41181</v>
+        <v>67216</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>217</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>595</v>
+        <v>935</v>
       </c>
       <c r="D8" s="7">
-        <v>531934</v>
+        <v>1160587</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>118</v>
+        <v>205</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>322</v>
+        <v>270</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="H8" s="7">
-        <v>964</v>
+        <v>1463</v>
       </c>
       <c r="I8" s="7">
-        <v>569149</v>
+        <v>923167</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>325</v>
+        <v>285</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="M8" s="7">
-        <v>1559</v>
+        <v>2398</v>
       </c>
       <c r="N8" s="7">
-        <v>1101083</v>
+        <v>2083755</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>327</v>
+        <v>287</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>225</v>
+        <v>288</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5151,54 +4566,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>611</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549302</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>996</v>
+        <v>1516</v>
       </c>
       <c r="I9" s="7">
-        <v>592962</v>
+        <v>958106</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1607</v>
+        <v>2480</v>
       </c>
       <c r="N9" s="7">
-        <v>1142264</v>
+        <v>2150971</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5207,97 +4622,97 @@
         <v>29</v>
       </c>
       <c r="D10" s="7">
-        <v>31656</v>
+        <v>31828</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>329</v>
+        <v>290</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
       <c r="H10" s="7">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="I10" s="7">
-        <v>39214</v>
+        <v>38088</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>332</v>
+        <v>293</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="M10" s="7">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="N10" s="7">
-        <v>70870</v>
+        <v>69917</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>935</v>
+        <v>646</v>
       </c>
       <c r="D11" s="7">
-        <v>1007592</v>
+        <v>671856</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>338</v>
+        <v>300</v>
       </c>
       <c r="H11" s="7">
-        <v>1463</v>
+        <v>981</v>
       </c>
       <c r="I11" s="7">
-        <v>1020260</v>
+        <v>894712</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>339</v>
+        <v>301</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="M11" s="7">
-        <v>2398</v>
+        <v>1627</v>
       </c>
       <c r="N11" s="7">
-        <v>2027852</v>
+        <v>1566567</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>78</v>
+        <v>304</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>342</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5306,153 +4721,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>675</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>703684</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1516</v>
+        <v>1046</v>
       </c>
       <c r="I12" s="7">
-        <v>1059474</v>
+        <v>932800</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2480</v>
+        <v>1721</v>
       </c>
       <c r="N12" s="7">
-        <v>2098722</v>
+        <v>1636484</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="7">
-        <v>32647</v>
+        <v>27584</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>195</v>
+        <v>306</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>343</v>
+        <v>307</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>344</v>
+        <v>308</v>
       </c>
       <c r="H13" s="7">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="I13" s="7">
-        <v>42202</v>
+        <v>127428</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>85</v>
+        <v>310</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="M13" s="7">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="N13" s="7">
-        <v>74849</v>
+        <v>155012</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>157</v>
+        <v>313</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>348</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>646</v>
+        <v>979</v>
       </c>
       <c r="D14" s="7">
-        <v>695054</v>
+        <v>899247</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>315</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="H14" s="7">
-        <v>981</v>
+        <v>1473</v>
       </c>
       <c r="I14" s="7">
-        <v>831544</v>
+        <v>963946</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>94</v>
+        <v>320</v>
       </c>
       <c r="M14" s="7">
-        <v>1627</v>
+        <v>2452</v>
       </c>
       <c r="N14" s="7">
-        <v>1526598</v>
+        <v>1863193</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>165</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5461,153 +4876,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>675</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>727701</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1046</v>
+        <v>1559</v>
       </c>
       <c r="I15" s="7">
-        <v>873746</v>
+        <v>1091374</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1721</v>
+        <v>2565</v>
       </c>
       <c r="N15" s="7">
-        <v>1601447</v>
+        <v>2018205</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="D16" s="7">
-        <v>28335</v>
+        <v>112679</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>315</v>
+        <v>115</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>74</v>
+        <v>325</v>
       </c>
       <c r="H16" s="7">
-        <v>86</v>
+        <v>245</v>
       </c>
       <c r="I16" s="7">
-        <v>79732</v>
+        <v>229682</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>357</v>
+        <v>327</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>358</v>
+        <v>328</v>
       </c>
       <c r="M16" s="7">
-        <v>113</v>
+        <v>349</v>
       </c>
       <c r="N16" s="7">
-        <v>108067</v>
+        <v>342361</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>52</v>
+        <v>329</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>173</v>
+        <v>330</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>979</v>
+        <v>3270</v>
       </c>
       <c r="D17" s="7">
-        <v>937068</v>
+        <v>3345651</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>82</v>
+        <v>333</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>323</v>
+        <v>123</v>
       </c>
       <c r="H17" s="7">
-        <v>1473</v>
+        <v>5114</v>
       </c>
       <c r="I17" s="7">
-        <v>1066571</v>
+        <v>3428020</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>363</v>
+        <v>336</v>
       </c>
       <c r="M17" s="7">
-        <v>2452</v>
+        <v>8384</v>
       </c>
       <c r="N17" s="7">
-        <v>2003639</v>
+        <v>6773671</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>60</v>
+        <v>337</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>182</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5616,217 +5031,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3374</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3458330</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1559</v>
+        <v>5359</v>
       </c>
       <c r="I18" s="7">
-        <v>1146303</v>
+        <v>3657702</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2565</v>
+        <v>8733</v>
       </c>
       <c r="N18" s="7">
-        <v>2111706</v>
+        <v>7116032</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>104</v>
-      </c>
-      <c r="D19" s="7">
-        <v>113695</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="H19" s="7">
-        <v>245</v>
-      </c>
-      <c r="I19" s="7">
-        <v>192211</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="M19" s="7">
-        <v>349</v>
-      </c>
-      <c r="N19" s="7">
-        <v>305906</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3270</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3269941</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5114</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3610651</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8384</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6880592</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3374</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3383636</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5359</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3802862</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8733</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7186498</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
